--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiHandrau\Documents\GitHub\Revisal_PoC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E0FF2-C0D9-4A27-A99F-EF6468FAEF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,36 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>emailReceiver</t>
+  </si>
+  <si>
+    <t>handrauandrei@gmail.com</t>
+  </si>
+  <si>
+    <t>emailSubject</t>
+  </si>
+  <si>
+    <t>Revisal Output Report</t>
+  </si>
+  <si>
+    <t>Don’t you hate it when someone answers their own questions? I do.</t>
+  </si>
+  <si>
+    <t>emailBody</t>
+  </si>
+  <si>
+    <t>outputReportPath</t>
+  </si>
+  <si>
+    <t>Data\Output\OutputReport</t>
+  </si>
+  <si>
+    <t>revisalPath</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\TeamNet\ReviSal HG500-2011\teamnet.revisal.ui.exe</t>
   </si>
 </sst>
 </file>
@@ -211,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -221,6 +251,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,18 +566,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +635,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -616,13 +647,48 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1608,6 +1674,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1620,15 +1687,15 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,18 +1732,18 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1857,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2786,12 +2853,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiHandrau\Documents\GitHub\Revisal_PoC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiHandrau\Downloads\Revisal_PoC-Develop (1)\Revisal_PoC-Develop\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E0FF2-C0D9-4A27-A99F-EF6468FAEF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997F6BB-51E0-43F5-9755-F8BAE2108EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="2235" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>C:\Program Files (x86)\TeamNet\ReviSal HG500-2011\teamnet.revisal.ui.exe</t>
+  </si>
+  <si>
+    <t>inputFilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\InputRevisal.xlsx</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -689,7 +695,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
